--- a/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,7 +138,7 @@
     <t>609398007</t>
   </si>
   <si>
-    <t>hypersensibilité non allergique à une drogue ou un médicament</t>
+    <t>hypersensibilité non allergique médicamenteuse</t>
   </si>
   <si>
     <t>735449006</t>
@@ -162,7 +162,7 @@
     <t>59037007</t>
   </si>
   <si>
-    <t>intolérance aux drogues et/ou médicaments</t>
+    <t>intolérance médicamenteuse</t>
   </si>
   <si>
     <t>235719002</t>

--- a/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-type-evenement-indesirable-previsible-cisis.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,6 +100,33 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>MED-1331</t>
+  </si>
+  <si>
+    <t>allergie à une substance</t>
+  </si>
+  <si>
+    <t>MED-1332</t>
+  </si>
+  <si>
+    <t>hypersensibilité non allergique à une substance</t>
+  </si>
+  <si>
+    <t>MED-1333</t>
+  </si>
+  <si>
+    <t>intolérance à un agent environnemental</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/CodeSystem/terminologie-cisis</t>
+  </si>
+  <si>
     <t>420134006</t>
   </si>
   <si>
@@ -123,12 +151,6 @@
     <t>allergie alimentaire</t>
   </si>
   <si>
-    <t>419199007</t>
-  </si>
-  <si>
-    <t>allergie à une substance</t>
-  </si>
-  <si>
     <t>609396006</t>
   </si>
   <si>
@@ -147,12 +169,6 @@
     <t>hypersensibilité non allergique alimentaire</t>
   </si>
   <si>
-    <t>609397002</t>
-  </si>
-  <si>
-    <t>hypersensibilité non allergique à une substance</t>
-  </si>
-  <si>
     <t>782197009</t>
   </si>
   <si>
@@ -171,22 +187,10 @@
     <t>intolérance alimentaire</t>
   </si>
   <si>
-    <t>1.2.250.1.213.1.1.5.794.1</t>
-  </si>
-  <si>
-    <t>intolérance à un agent environnemental (Demande de création SNOMED CT en cours)</t>
-  </si>
-  <si>
     <t>56840009</t>
   </si>
   <si>
     <t>idiosyncrasie</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -456,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,103 +507,144 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>36</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
